--- a/biology/Zoologie/Choucador_à_ventre_noir/Choucador_à_ventre_noir.xlsx
+++ b/biology/Zoologie/Choucador_à_ventre_noir/Choucador_à_ventre_noir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Choucador_%C3%A0_ventre_noir</t>
+          <t>Choucador_à_ventre_noir</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Notopholia, Notopholia corusca
-Le Choucador à ventre noir (Notopholia corusca[2]), unique représentant du genre Notopholia, est une espèce d'oiseaux de la famille des Sturnidae.
+Le Choucador à ventre noir (Notopholia corusca), unique représentant du genre Notopholia, est une espèce d'oiseaux de la famille des Sturnidae.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Choucador_%C3%A0_ventre_noir</t>
+          <t>Choucador_à_ventre_noir</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Notopholia corrusca a été décrite pour la première fois en 1835 par le zoologiste finlandais Alexander von Nordmann (1803-1866) sous le protonyme de Lamprotornis coruscus[1]. À noter que les graphies incorrectes Notopholia corrusca et Lamprotornis corruscus sont parfois mentionnées[1], notamment par l’ITIS[3].
-En 1922, le zoologiste sud-africain Austin Roberts (1883-1948) revoie la nomenclature des oiseaux sud-africains et crée le genre Notopholia pour y classer l'espèce Lamprotornis coruscus[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Notopholia corrusca a été décrite pour la première fois en 1835 par le zoologiste finlandais Alexander von Nordmann (1803-1866) sous le protonyme de Lamprotornis coruscus. À noter que les graphies incorrectes Notopholia corrusca et Lamprotornis corruscus sont parfois mentionnées, notamment par l’ITIS.
+En 1922, le zoologiste sud-africain Austin Roberts (1883-1948) revoie la nomenclature des oiseaux sud-africains et crée le genre Notopholia pour y classer l'espèce Lamprotornis coruscus.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Choucador_%C3%A0_ventre_noir</t>
+          <t>Choucador_à_ventre_noir</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire s'étend à travers les régions littorales et fluviales de l'Est de l'Afrique.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Choucador_%C3%A0_ventre_noir</t>
+          <t>Choucador_à_ventre_noir</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (14 mai 2022)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (14 mai 2022) :
 sous-espèce Notopholia corusca corusca (Nordmann, 1835)
 sous-espèce Notopholia corusca vaughani (Bannerman, 1926)</t>
         </is>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Choucador_%C3%A0_ventre_noir</t>
+          <t>Choucador_à_ventre_noir</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Genre Notopholia :
 (en) Austin Roberts, « Review of the nomenclature of South African birds », Annals of the Transvaal Museum, Pretoria, Inconnu, vol. 8, no 4,‎ 1er octobre 1922, p. 187-272 (ISSN 0041-1752 et 2226-9835, OCLC 1714046, lire en ligne)</t>
